--- a/NetworkStudy/Check6/6章.xlsx
+++ b/NetworkStudy/Check6/6章.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryu-g\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LetsEngineer\curriculum\NetworkStudy\Check6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C2D067-4452-4935-A645-0338B05B4927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD84C7D-7C03-49FF-805F-40B967E03F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7035" yWindow="45" windowWidth="21600" windowHeight="11295" xr2:uid="{8DF7E663-EDB0-49CA-A87A-11EFC62F3550}"/>
+    <workbookView xWindow="7320" yWindow="30" windowWidth="21600" windowHeight="11295" xr2:uid="{8DF7E663-EDB0-49CA-A87A-11EFC62F3550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>PCへIPアドレスの割り振り</t>
     <rPh sb="10" eb="11">
@@ -197,13 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イネーブルパスワードの設定</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン時とユーザーモードから特権モードの際にパスワードがかかること確認</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
@@ -220,10 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>securityポートの動作確認</t>
     <rPh sb="12" eb="16">
       <t>ドウサカクニン</t>
@@ -359,6 +348,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの暗号化</t>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +378,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,9 +409,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,50 +1363,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>533</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219967</xdr:colOff>
-      <xdr:row>555</xdr:row>
-      <xdr:rowOff>181731</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E42A74D-A925-C0C0-68E2-9CE25BDB6691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="126920625"/>
-          <a:ext cx="6392167" cy="5420481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>557</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1424,7 +1386,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1468,7 +1430,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1512,7 +1474,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1556,7 +1518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1600,7 +1562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1644,7 +1606,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1688,7 +1650,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1732,7 +1694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1776,7 +1738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1820,7 +1782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1864,7 +1826,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1908,7 +1870,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1952,7 +1914,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1961,6 +1923,50 @@
         <a:xfrm>
           <a:off x="0" y="200977500"/>
           <a:ext cx="6239746" cy="4896533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>410494</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>105563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E705549-A994-75A4-1B98-B07F570F58C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="126853950"/>
+          <a:ext cx="6582694" cy="5649113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2271,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE11A754-DAEC-4174-BF38-AD96EF44A63E}">
   <dimension ref="K1:L844"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
-      <selection activeCell="K854" sqref="K854"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="M540" sqref="M540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2367,94 +2373,91 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="534" spans="11:12" x14ac:dyDescent="0.4">
+      <c r="K534" s="1"/>
       <c r="L534" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="535" spans="12:12" x14ac:dyDescent="0.4">
-      <c r="L535" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="558" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K558" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="570" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L570" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="571" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L571" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="598" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L598" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="622" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L622" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="651" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L651" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="672" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L672" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="701" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K701" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="722" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L722" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="751" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L751" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="758" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L758" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="759" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L759" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="787" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L787" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="816" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L816" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="844" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K844" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>